--- a/komatsu_excavator_data_combined.xlsx
+++ b/komatsu_excavator_data_combined.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +528,1796 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DX89R-7</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>9,518 kg</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.28 m³</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.5/2,100 (kW/rpm)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Develon D24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.7/4.7 km/h</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7,015 mm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>4,110 mm</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>7,030 mm</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>6,430 mm</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2,250 mm</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2,657 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DX55R-7M</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5,980 kg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.16 m3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.4/2,200 kW/rpm</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Develon DW02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.6 - 4.4 km/h</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6,090 mm</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>3,630 mm</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>3,925 mm</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>5,400 mm</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1,980 mm</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2,575 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DX50Z-7M</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5,480 kg</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.14 m3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.4/2,200 kW/rpm</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Develon DW02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.6 - 4.4 km/h</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5,945 mm</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3,480 mm</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>5,575 mm</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>5,386 mm</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1,980 mm</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2,575 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DX19Z-7B</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1,995 kg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.05 m3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.3 kW (14 ps) @ 2,200 rpm</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Yanmar 3TNV70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.0 - 3.7 km/h</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3,810 mm</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2,180 mm</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>3,680 mm</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>3,476 mm</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>950 mm</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1,255 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DX27Z-7M (CABIN)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2,88 ton</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.06 m³</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.4/2,400 kW/rpm</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>DEVELON DN1.7</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.4/2.6 km/h</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4,655 mm</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2,645 mm</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>4,385 mm</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>4,186 mm</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1,550 mm</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2,448 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DX27Z-7M (CANOPY)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2.77 ton</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.06 m³</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.4/2,400 kW/rpm</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>DEVELON DN1.7</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.4/2.6 km/h</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4,655 mm</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2,645 mm</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>4,385 mm</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>4,186 mm</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1,550 mm</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2,448 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DX300LC-7B</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Details not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DX220LCA-2M</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>21,300 kg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.92 m³</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>109/1,800 (kW/rpm)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>DEVELON DB58TIS</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.0/5.5 km/h</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>9,875 mm</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>6,595 mm</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>9,625 mm</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>9,505 mm</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2,990 mm</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>3,005 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DX360LC-7B</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>35.9 ton</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2.32 m3 H class</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>210 kW (286 PS) @ 1,800 rpm</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SCANIA DC09 076A</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.0 - 5.0 km/h</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>10,924 mm</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>7,182 mm</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>10,527 mm</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>11,296 mm</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>3,280 mm</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>3,560 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DX260LC-7M</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Details not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DX220A-2M</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>21.3 ton</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.92 m³</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>109 kW (148 PS) @ 1,800 rpm (SAE J1349, Net)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>DEVELON DB58TIS</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.01 / 5.56 km/h</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>9,875 mm</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>6,595 mm</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>6,840 mm</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>9,505 mm</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2,990 mm</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>3,005 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DX235LCR-7</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>24.3 ton</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.92 m³</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>127/1,900 kW/rpm</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Develon DL06V</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.2-5.8 km/h</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>9,830 mm</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>6,680 mm</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>10,805 mm</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>8,970 mm</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2,990 mm</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>2,980 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>DX530LC-7B</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>53,300 kg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3.6 ㎥</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>294 kW / 2,100 rpm</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SCANIA DC13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.1 / 5.3 km/h</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>11,020 mm</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>7,015 mm</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>9,790 mm</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>11,525 mm</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>3,900 mm</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>4,170 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DX490LC-7B</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>50,700 kg</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2.7 ㎥</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>294 kW / 2,100 rpm</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SCANIA DC13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.1 / 5.3 km/h</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>11,720 mm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>7,315 mm</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>10,885 mm</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>12,230 mm</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>3,900 mm</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>3,865 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>DX360LCA-7M</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>37.6 ton</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1.25~1.83 m³</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>233/1,800 kW/rpm</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>DX12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.5/3.4 km/h</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>11,115 mm</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>7,485 mm</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>10,215 mm</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>11,315 mm</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>3,280 mm</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>3,420 mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DX360LC-7M</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Message: no such element: Unable to locate element: {"method":"css selector","selector":"a[jsname="UWckNb"]"}
+  (Session info: chrome=132.0.6834.84); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+0   chromedriver                        0x000000010129f7a4 cxxbridge1$str$ptr + 2589716
+1   chromedriver                        0x000000010129805c cxxbridge1$str$ptr + 2559180
+2   chromedriver                        0x0000000100e3bf5c cxxbridge1$string$len + 88260
+3   chromedriver                        0x0000000100e81024 cxxbridge1$string$len + 371084
+4   chromedriver                        0x0000000100ebb1a8 cxxbridge1$string$len + 609040
+5   chromedriver                        0x0000000100e74e40 cxxbridge1$string$len + 321448
+6   chromedriver                        0x0000000100e75a88 cxxbridge1$string$len + 324592
+7   chromedriver                        0x000000010126a8a0 cxxbridge1$str$ptr + 2372880
+8   chromedriver                        0x000000010126dbc4 cxxbridge1$str$ptr + 2385972
+9   chromedriver                        0x00000001012516e0 cxxbridge1$str$ptr + 2270032
+10  chromedriver                        0x000000010126e484 cxxbridge1$str$ptr + 2388212
+11  chromedriver                        0x0000000101243324 cxxbridge1$str$ptr + 2211732
+12  chromedriver                        0x00000001012890a0 cxxbridge1$str$ptr + 2497808
+13  chromedriver                        0x000000010128921c cxxbridge1$str$ptr + 2498188
+14  chromedriver                        0x0000000101297cd0 cxxbridge1$str$ptr + 2558272
+15  libsystem_pthread.dylib             0x000000018e4e72e4 _pthread_start + 136
+16  libsystem_pthread.dylib             0x000000018e4e20fc thread_start + 8
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DX400LC-7M</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Message: no such element: Unable to locate element: {"method":"css selector","selector":"a[jsname="UWckNb"]"}
+  (Session info: chrome=132.0.6834.84); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+0   chromedriver                        0x00000001028077a4 cxxbridge1$str$ptr + 2589716
+1   chromedriver                        0x000000010280005c cxxbridge1$str$ptr + 2559180
+2   chromedriver                        0x00000001023a3f5c cxxbridge1$string$len + 88260
+3   chromedriver                        0x00000001023e9024 cxxbridge1$string$len + 371084
+4   chromedriver                        0x00000001024231a8 cxxbridge1$string$len + 609040
+5   chromedriver                        0x00000001023dce40 cxxbridge1$string$len + 321448
+6   chromedriver                        0x00000001023dda88 cxxbridge1$string$len + 324592
+7   chromedriver                        0x00000001027d28a0 cxxbridge1$str$ptr + 2372880
+8   chromedriver                        0x00000001027d5bc4 cxxbridge1$str$ptr + 2385972
+9   chromedriver                        0x00000001027b96e0 cxxbridge1$str$ptr + 2270032
+10  chromedriver                        0x00000001027d6484 cxxbridge1$str$ptr + 2388212
+11  chromedriver                        0x00000001027ab324 cxxbridge1$str$ptr + 2211732
+12  chromedriver                        0x00000001027f10a0 cxxbridge1$str$ptr + 2497808
+13  chromedriver                        0x00000001027f121c cxxbridge1$str$ptr + 2498188
+14  chromedriver                        0x00000001027ffcd0 cxxbridge1$str$ptr + 2558272
+15  libsystem_pthread.dylib             0x000000018e4e72e4 _pthread_start + 136
+16  libsystem_pthread.dylib             0x000000018e4e20fc thread_start + 8
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>DX450LCA-7M</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Message: no such element: Unable to locate element: {"method":"css selector","selector":"a[jsname="UWckNb"]"}
+  (Session info: chrome=132.0.6834.84); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+0   chromedriver                        0x00000001030bb7a4 cxxbridge1$str$ptr + 2589716
+1   chromedriver                        0x00000001030b405c cxxbridge1$str$ptr + 2559180
+2   chromedriver                        0x0000000102c57f5c cxxbridge1$string$len + 88260
+3   chromedriver                        0x0000000102c9d024 cxxbridge1$string$len + 371084
+4   chromedriver                        0x0000000102cd71a8 cxxbridge1$string$len + 609040
+5   chromedriver                        0x0000000102c90e40 cxxbridge1$string$len + 321448
+6   chromedriver                        0x0000000102c91a88 cxxbridge1$string$len + 324592
+7   chromedriver                        0x00000001030868a0 cxxbridge1$str$ptr + 2372880
+8   chromedriver                        0x0000000103089bc4 cxxbridge1$str$ptr + 2385972
+9   chromedriver                        0x000000010306d6e0 cxxbridge1$str$ptr + 2270032
+10  chromedriver                        0x000000010308a484 cxxbridge1$str$ptr + 2388212
+11  chromedriver                        0x000000010305f324 cxxbridge1$str$ptr + 2211732
+12  chromedriver                        0x00000001030a50a0 cxxbridge1$str$ptr + 2497808
+13  chromedriver                        0x00000001030a521c cxxbridge1$str$ptr + 2498188
+14  chromedriver                        0x00000001030b3cd0 cxxbridge1$str$ptr + 2558272
+15  libsystem_pthread.dylib             0x000000018e4e72e4 _pthread_start + 136
+16  libsystem_pthread.dylib             0x000000018e4e20fc thread_start + 8
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>DX210W-7B</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Message: no such element: Unable to locate element: {"method":"css selector","selector":"a[jsname="UWckNb"]"}
+  (Session info: chrome=132.0.6834.84); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+0   chromedriver                        0x00000001027b77a4 cxxbridge1$str$ptr + 2589716
+1   chromedriver                        0x00000001027b005c cxxbridge1$str$ptr + 2559180
+2   chromedriver                        0x0000000102353f5c cxxbridge1$string$len + 88260
+3   chromedriver                        0x0000000102399024 cxxbridge1$string$len + 371084
+4   chromedriver                        0x00000001023d31a8 cxxbridge1$string$len + 609040
+5   chromedriver                        0x000000010238ce40 cxxbridge1$string$len + 321448
+6   chromedriver                        0x000000010238da88 cxxbridge1$string$len + 324592
+7   chromedriver                        0x00000001027828a0 cxxbridge1$str$ptr + 2372880
+8   chromedriver                        0x0000000102785bc4 cxxbridge1$str$ptr + 2385972
+9   chromedriver                        0x00000001027696e0 cxxbridge1$str$ptr + 2270032
+10  chromedriver                        0x0000000102786484 cxxbridge1$str$ptr + 2388212
+11  chromedriver                        0x000000010275b324 cxxbridge1$str$ptr + 2211732
+12  chromedriver                        0x00000001027a10a0 cxxbridge1$str$ptr + 2497808
+13  chromedriver                        0x00000001027a121c cxxbridge1$str$ptr + 2498188
+14  chromedriver                        0x00000001027afcd0 cxxbridge1$str$ptr + 2558272
+15  libsystem_pthread.dylib             0x000000018e4e72e4 _pthread_start + 136
+16  libsystem_pthread.dylib             0x000000018e4e20fc thread_start + 8
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>DX150W-7B</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Message: no such element: Unable to locate element: {"method":"css selector","selector":"a[jsname="UWckNb"]"}
+  (Session info: chrome=132.0.6834.84); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+0   chromedriver                        0x000000010459f7a4 cxxbridge1$str$ptr + 2589716
+1   chromedriver                        0x000000010459805c cxxbridge1$str$ptr + 2559180
+2   chromedriver                        0x000000010413bf5c cxxbridge1$string$len + 88260
+3   chromedriver                        0x0000000104181024 cxxbridge1$string$len + 371084
+4   chromedriver                        0x00000001041bb1a8 cxxbridge1$string$len + 609040
+5   chromedriver                        0x0000000104174e40 cxxbridge1$string$len + 321448
+6   chromedriver                        0x0000000104175a88 cxxbridge1$string$len + 324592
+7   chromedriver                        0x000000010456a8a0 cxxbridge1$str$ptr + 2372880
+8   chromedriver                        0x000000010456dbc4 cxxbridge1$str$ptr + 2385972
+9   chromedriver                        0x00000001045516e0 cxxbridge1$str$ptr + 2270032
+10  chromedriver                        0x000000010456e484 cxxbridge1$str$ptr + 2388212
+11  chromedriver                        0x0000000104543324 cxxbridge1$str$ptr + 2211732
+12  chromedriver                        0x00000001045890a0 cxxbridge1$str$ptr + 2497808
+13  chromedriver                        0x000000010458921c cxxbridge1$str$ptr + 2498188
+14  chromedriver                        0x0000000104597cd0 cxxbridge1$str$ptr + 2558272
+15  libsystem_pthread.dylib             0x000000018e4e72e4 _pthread_start + 136
+16  libsystem_pthread.dylib             0x000000018e4e20fc thread_start + 8
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>DX190WA</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Message: no such element: Unable to locate element: {"method":"css selector","selector":"a[jsname="UWckNb"]"}
+  (Session info: chrome=132.0.6834.84); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+0   chromedriver                        0x0000000100e977a4 cxxbridge1$str$ptr + 2589716
+1   chromedriver                        0x0000000100e9005c cxxbridge1$str$ptr + 2559180
+2   chromedriver                        0x0000000100a33f5c cxxbridge1$string$len + 88260
+3   chromedriver                        0x0000000100a79024 cxxbridge1$string$len + 371084
+4   chromedriver                        0x0000000100ab31a8 cxxbridge1$string$len + 609040
+5   chromedriver                        0x0000000100a6ce40 cxxbridge1$string$len + 321448
+6   chromedriver                        0x0000000100a6da88 cxxbridge1$string$len + 324592
+7   chromedriver                        0x0000000100e628a0 cxxbridge1$str$ptr + 2372880
+8   chromedriver                        0x0000000100e65bc4 cxxbridge1$str$ptr + 2385972
+9   chromedriver                        0x0000000100e496e0 cxxbridge1$str$ptr + 2270032
+10  chromedriver                        0x0000000100e66484 cxxbridge1$str$ptr + 2388212
+11  chromedriver                        0x0000000100e3b324 cxxbridge1$str$ptr + 2211732
+12  chromedriver                        0x0000000100e810a0 cxxbridge1$str$ptr + 2497808
+13  chromedriver                        0x0000000100e8121c cxxbridge1$str$ptr + 2498188
+14  chromedriver                        0x0000000100e8fcd0 cxxbridge1$str$ptr + 2558272
+15  libsystem_pthread.dylib             0x000000018e4e72e4 _pthread_start + 136
+16  libsystem_pthread.dylib             0x000000018e4e20fc thread_start + 8
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DX210WA</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Message: no such element: Unable to locate element: {"method":"css selector","selector":"a[jsname="UWckNb"]"}
+  (Session info: chrome=132.0.6834.84); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+0   chromedriver                        0x00000001025fb7a4 cxxbridge1$str$ptr + 2589716
+1   chromedriver                        0x00000001025f405c cxxbridge1$str$ptr + 2559180
+2   chromedriver                        0x0000000102197f5c cxxbridge1$string$len + 88260
+3   chromedriver                        0x00000001021dd024 cxxbridge1$string$len + 371084
+4   chromedriver                        0x00000001022171a8 cxxbridge1$string$len + 609040
+5   chromedriver                        0x00000001021d0e40 cxxbridge1$string$len + 321448
+6   chromedriver                        0x00000001021d1a88 cxxbridge1$string$len + 324592
+7   chromedriver                        0x00000001025c68a0 cxxbridge1$str$ptr + 2372880
+8   chromedriver                        0x00000001025c9bc4 cxxbridge1$str$ptr + 2385972
+9   chromedriver                        0x00000001025ad6e0 cxxbridge1$str$ptr + 2270032
+10  chromedriver                        0x00000001025ca484 cxxbridge1$str$ptr + 2388212
+11  chromedriver                        0x000000010259f324 cxxbridge1$str$ptr + 2211732
+12  chromedriver                        0x00000001025e50a0 cxxbridge1$str$ptr + 2497808
+13  chromedriver                        0x00000001025e521c cxxbridge1$str$ptr + 2498188
+14  chromedriver                        0x00000001025f3cd0 cxxbridge1$str$ptr + 2558272
+15  libsystem_pthread.dylib             0x000000018e4e72e4 _pthread_start + 136
+16  libsystem_pthread.dylib             0x000000018e4e20fc thread_start + 8
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>DX35Z-7M (CABIN)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Message: no such element: Unable to locate element: {"method":"css selector","selector":"a[jsname="UWckNb"]"}
+  (Session info: chrome=132.0.6834.84); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+0   chromedriver                        0x00000001047037a4 cxxbridge1$str$ptr + 2589716
+1   chromedriver                        0x00000001046fc05c cxxbridge1$str$ptr + 2559180
+2   chromedriver                        0x000000010429ff5c cxxbridge1$string$len + 88260
+3   chromedriver                        0x00000001042e5024 cxxbridge1$string$len + 371084
+4   chromedriver                        0x000000010431f1a8 cxxbridge1$string$len + 609040
+5   chromedriver                        0x00000001042d8e40 cxxbridge1$string$len + 321448
+6   chromedriver                        0x00000001042d9a88 cxxbridge1$string$len + 324592
+7   chromedriver                        0x00000001046ce8a0 cxxbridge1$str$ptr + 2372880
+8   chromedriver                        0x00000001046d1bc4 cxxbridge1$str$ptr + 2385972
+9   chromedriver                        0x00000001046b56e0 cxxbridge1$str$ptr + 2270032
+10  chromedriver                        0x00000001046d2484 cxxbridge1$str$ptr + 2388212
+11  chromedriver                        0x00000001046a7324 cxxbridge1$str$ptr + 2211732
+12  chromedriver                        0x00000001046ed0a0 cxxbridge1$str$ptr + 2497808
+13  chromedriver                        0x00000001046ed21c cxxbridge1$str$ptr + 2498188
+14  chromedriver                        0x00000001046fbcd0 cxxbridge1$str$ptr + 2558272
+15  libsystem_pthread.dylib             0x000000018e4e72e4 _pthread_start + 136
+16  libsystem_pthread.dylib             0x000000018e4e20fc thread_start + 8
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>DX55-5C</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Message: no such element: Unable to locate element: {"method":"css selector","selector":"a[jsname="UWckNb"]"}
+  (Session info: chrome=132.0.6834.84); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+0   chromedriver                        0x0000000100a077a4 cxxbridge1$str$ptr + 2589716
+1   chromedriver                        0x0000000100a0005c cxxbridge1$str$ptr + 2559180
+2   chromedriver                        0x00000001005a3f5c cxxbridge1$string$len + 88260
+3   chromedriver                        0x00000001005e9024 cxxbridge1$string$len + 371084
+4   chromedriver                        0x00000001006231a8 cxxbridge1$string$len + 609040
+5   chromedriver                        0x00000001005dce40 cxxbridge1$string$len + 321448
+6   chromedriver                        0x00000001005dda88 cxxbridge1$string$len + 324592
+7   chromedriver                        0x00000001009d28a0 cxxbridge1$str$ptr + 2372880
+8   chromedriver                        0x00000001009d5bc4 cxxbridge1$str$ptr + 2385972
+9   chromedriver                        0x00000001009b96e0 cxxbridge1$str$ptr + 2270032
+10  chromedriver                        0x00000001009d6484 cxxbridge1$str$ptr + 2388212
+11  chromedriver                        0x00000001009ab324 cxxbridge1$str$ptr + 2211732
+12  chromedriver                        0x00000001009f10a0 cxxbridge1$str$ptr + 2497808
+13  chromedriver                        0x00000001009f121c cxxbridge1$str$ptr + 2498188
+14  chromedriver                        0x00000001009ffcd0 cxxbridge1$str$ptr + 2558272
+15  libsystem_pthread.dylib             0x000000018e4e72e4 _pthread_start + 136
+16  libsystem_pthread.dylib             0x000000018e4e20fc thread_start + 8
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>DX55W</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Message: no such element: Unable to locate element: {"method":"css selector","selector":"a[jsname="UWckNb"]"}
+  (Session info: chrome=132.0.6834.84); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+0   chromedriver                        0x00000001008bf7a4 cxxbridge1$str$ptr + 2589716
+1   chromedriver                        0x00000001008b805c cxxbridge1$str$ptr + 2559180
+2   chromedriver                        0x000000010045bf5c cxxbridge1$string$len + 88260
+3   chromedriver                        0x00000001004a1024 cxxbridge1$string$len + 371084
+4   chromedriver                        0x00000001004db1a8 cxxbridge1$string$len + 609040
+5   chromedriver                        0x0000000100494e40 cxxbridge1$string$len + 321448
+6   chromedriver                        0x0000000100495a88 cxxbridge1$string$len + 324592
+7   chromedriver                        0x000000010088a8a0 cxxbridge1$str$ptr + 2372880
+8   chromedriver                        0x000000010088dbc4 cxxbridge1$str$ptr + 2385972
+9   chromedriver                        0x00000001008716e0 cxxbridge1$str$ptr + 2270032
+10  chromedriver                        0x000000010088e484 cxxbridge1$str$ptr + 2388212
+11  chromedriver                        0x0000000100863324 cxxbridge1$str$ptr + 2211732
+12  chromedriver                        0x00000001008a90a0 cxxbridge1$str$ptr + 2497808
+13  chromedriver                        0x00000001008a921c cxxbridge1$str$ptr + 2498188
+14  chromedriver                        0x00000001008b7cd0 cxxbridge1$str$ptr + 2558272
+15  libsystem_pthread.dylib             0x000000018e4e72e4 _pthread_start + 136
+16  libsystem_pthread.dylib             0x000000018e4e20fc thread_start + 8
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>DX63-3</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Message: no such element: Unable to locate element: {"method":"css selector","selector":"a[jsname="UWckNb"]"}
+  (Session info: chrome=132.0.6834.84); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+0   chromedriver                        0x00000001052577a4 cxxbridge1$str$ptr + 2589716
+1   chromedriver                        0x000000010525005c cxxbridge1$str$ptr + 2559180
+2   chromedriver                        0x0000000104df3f5c cxxbridge1$string$len + 88260
+3   chromedriver                        0x0000000104e39024 cxxbridge1$string$len + 371084
+4   chromedriver                        0x0000000104e731a8 cxxbridge1$string$len + 609040
+5   chromedriver                        0x0000000104e2ce40 cxxbridge1$string$len + 321448
+6   chromedriver                        0x0000000104e2da88 cxxbridge1$string$len + 324592
+7   chromedriver                        0x00000001052228a0 cxxbridge1$str$ptr + 2372880
+8   chromedriver                        0x0000000105225bc4 cxxbridge1$str$ptr + 2385972
+9   chromedriver                        0x00000001052096e0 cxxbridge1$str$ptr + 2270032
+10  chromedriver                        0x0000000105226484 cxxbridge1$str$ptr + 2388212
+11  chromedriver                        0x00000001051fb324 cxxbridge1$str$ptr + 2211732
+12  chromedriver                        0x00000001052410a0 cxxbridge1$str$ptr + 2497808
+13  chromedriver                        0x000000010524121c cxxbridge1$str$ptr + 2498188
+14  chromedriver                        0x000000010524fcd0 cxxbridge1$str$ptr + 2558272
+15  libsystem_pthread.dylib             0x000000018e4e72e4 _pthread_start + 136
+16  libsystem_pthread.dylib             0x000000018e4e20fc thread_start + 8
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DX80R</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Message: no such element: Unable to locate element: {"method":"css selector","selector":"a[jsname="UWckNb"]"}
+  (Session info: chrome=132.0.6834.84); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+0   chromedriver                        0x0000000102bbb7a4 cxxbridge1$str$ptr + 2589716
+1   chromedriver                        0x0000000102bb405c cxxbridge1$str$ptr + 2559180
+2   chromedriver                        0x0000000102757f5c cxxbridge1$string$len + 88260
+3   chromedriver                        0x000000010279d024 cxxbridge1$string$len + 371084
+4   chromedriver                        0x00000001027d71a8 cxxbridge1$string$len + 609040
+5   chromedriver                        0x0000000102790e40 cxxbridge1$string$len + 321448
+6   chromedriver                        0x0000000102791a88 cxxbridge1$string$len + 324592
+7   chromedriver                        0x0000000102b868a0 cxxbridge1$str$ptr + 2372880
+8   chromedriver                        0x0000000102b89bc4 cxxbridge1$str$ptr + 2385972
+9   chromedriver                        0x0000000102b6d6e0 cxxbridge1$str$ptr + 2270032
+10  chromedriver                        0x0000000102b8a484 cxxbridge1$str$ptr + 2388212
+11  chromedriver                        0x0000000102b5f324 cxxbridge1$str$ptr + 2211732
+12  chromedriver                        0x0000000102ba50a0 cxxbridge1$str$ptr + 2497808
+13  chromedriver                        0x0000000102ba521c cxxbridge1$str$ptr + 2498188
+14  chromedriver                        0x0000000102bb3cd0 cxxbridge1$str$ptr + 2558272
+15  libsystem_pthread.dylib             0x000000018e4e72e4 _pthread_start + 136
+16  libsystem_pthread.dylib             0x000000018e4e20fc thread_start + 8
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DX140LCR-7</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Message: no such element: Unable to locate element: {"method":"css selector","selector":"a[jsname="UWckNb"]"}
+  (Session info: chrome=132.0.6834.84); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+0   chromedriver                        0x00000001047db7a4 cxxbridge1$str$ptr + 2589716
+1   chromedriver                        0x00000001047d405c cxxbridge1$str$ptr + 2559180
+2   chromedriver                        0x0000000104377f5c cxxbridge1$string$len + 88260
+3   chromedriver                        0x00000001043bd024 cxxbridge1$string$len + 371084
+4   chromedriver                        0x00000001043f71a8 cxxbridge1$string$len + 609040
+5   chromedriver                        0x00000001043b0e40 cxxbridge1$string$len + 321448
+6   chromedriver                        0x00000001043b1a88 cxxbridge1$string$len + 324592
+7   chromedriver                        0x00000001047a68a0 cxxbridge1$str$ptr + 2372880
+8   chromedriver                        0x00000001047a9bc4 cxxbridge1$str$ptr + 2385972
+9   chromedriver                        0x000000010478d6e0 cxxbridge1$str$ptr + 2270032
+10  chromedriver                        0x00000001047aa484 cxxbridge1$str$ptr + 2388212
+11  chromedriver                        0x000000010477f324 cxxbridge1$str$ptr + 2211732
+12  chromedriver                        0x00000001047c50a0 cxxbridge1$str$ptr + 2497808
+13  chromedriver                        0x00000001047c521c cxxbridge1$str$ptr + 2498188
+14  chromedriver                        0x00000001047d3cd0 cxxbridge1$str$ptr + 2558272
+15  libsystem_pthread.dylib             0x000000018e4e72e4 _pthread_start + 136
+16  libsystem_pthread.dylib             0x000000018e4e20fc thread_start + 8
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>DX200A-7M</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Message: no such element: Unable to locate element: {"method":"css selector","selector":"a[jsname="UWckNb"]"}
+  (Session info: chrome=132.0.6834.84); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+0   chromedriver                        0x0000000104e677a4 cxxbridge1$str$ptr + 2589716
+1   chromedriver                        0x0000000104e6005c cxxbridge1$str$ptr + 2559180
+2   chromedriver                        0x0000000104a03f5c cxxbridge1$string$len + 88260
+3   chromedriver                        0x0000000104a49024 cxxbridge1$string$len + 371084
+4   chromedriver                        0x0000000104a831a8 cxxbridge1$string$len + 609040
+5   chromedriver                        0x0000000104a3ce40 cxxbridge1$string$len + 321448
+6   chromedriver                        0x0000000104a3da88 cxxbridge1$string$len + 324592
+7   chromedriver                        0x0000000104e328a0 cxxbridge1$str$ptr + 2372880
+8   chromedriver                        0x0000000104e35bc4 cxxbridge1$str$ptr + 2385972
+9   chromedriver                        0x0000000104e196e0 cxxbridge1$str$ptr + 2270032
+10  chromedriver                        0x0000000104e36484 cxxbridge1$str$ptr + 2388212
+11  chromedriver                        0x0000000104e0b324 cxxbridge1$str$ptr + 2211732
+12  chromedriver                        0x0000000104e510a0 cxxbridge1$str$ptr + 2497808
+13  chromedriver                        0x0000000104e5121c cxxbridge1$str$ptr + 2498188
+14  chromedriver                        0x0000000104e5fcd0 cxxbridge1$str$ptr + 2558272
+15  libsystem_pthread.dylib             0x000000018e4e72e4 _pthread_start + 136
+16  libsystem_pthread.dylib             0x000000018e4e20fc thread_start + 8
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>DX220LC-7M</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Message: no such element: Unable to locate element: {"method":"css selector","selector":"a[jsname="UWckNb"]"}
+  (Session info: chrome=132.0.6834.84); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+0   chromedriver                        0x000000010462b7a4 cxxbridge1$str$ptr + 2589716
+1   chromedriver                        0x000000010462405c cxxbridge1$str$ptr + 2559180
+2   chromedriver                        0x00000001041c7f5c cxxbridge1$string$len + 88260
+3   chromedriver                        0x000000010420d024 cxxbridge1$string$len + 371084
+4   chromedriver                        0x00000001042471a8 cxxbridge1$string$len + 609040
+5   chromedriver                        0x0000000104200e40 cxxbridge1$string$len + 321448
+6   chromedriver                        0x0000000104201a88 cxxbridge1$string$len + 324592
+7   chromedriver                        0x00000001045f68a0 cxxbridge1$str$ptr + 2372880
+8   chromedriver                        0x00000001045f9bc4 cxxbridge1$str$ptr + 2385972
+9   chromedriver                        0x00000001045dd6e0 cxxbridge1$str$ptr + 2270032
+10  chromedriver                        0x00000001045fa484 cxxbridge1$str$ptr + 2388212
+11  chromedriver                        0x00000001045cf324 cxxbridge1$str$ptr + 2211732
+12  chromedriver                        0x00000001046150a0 cxxbridge1$str$ptr + 2497808
+13  chromedriver                        0x000000010461521c cxxbridge1$str$ptr + 2498188
+14  chromedriver                        0x0000000104623cd0 cxxbridge1$str$ptr + 2558272
+15  libsystem_pthread.dylib             0x000000018e4e72e4 _pthread_start + 136
+16  libsystem_pthread.dylib             0x000000018e4e20fc thread_start + 8
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>DX220A-2</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Message: no such element: Unable to locate element: {"method":"css selector","selector":"a[jsname="UWckNb"]"}
+  (Session info: chrome=132.0.6834.84); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+0   chromedriver                        0x000000010300b7a4 cxxbridge1$str$ptr + 2589716
+1   chromedriver                        0x000000010300405c cxxbridge1$str$ptr + 2559180
+2   chromedriver                        0x0000000102ba7f5c cxxbridge1$string$len + 88260
+3   chromedriver                        0x0000000102bed024 cxxbridge1$string$len + 371084
+4   chromedriver                        0x0000000102c271a8 cxxbridge1$string$len + 609040
+5   chromedriver                        0x0000000102be0e40 cxxbridge1$string$len + 321448
+6   chromedriver                        0x0000000102be1a88 cxxbridge1$string$len + 324592
+7   chromedriver                        0x0000000102fd68a0 cxxbridge1$str$ptr + 2372880
+8   chromedriver                        0x0000000102fd9bc4 cxxbridge1$str$ptr + 2385972
+9   chromedriver                        0x0000000102fbd6e0 cxxbridge1$str$ptr + 2270032
+10  chromedriver                        0x0000000102fda484 cxxbridge1$str$ptr + 2388212
+11  chromedriver                        0x0000000102faf324 cxxbridge1$str$ptr + 2211732
+12  chromedriver                        0x0000000102ff50a0 cxxbridge1$str$ptr + 2497808
+13  chromedriver                        0x0000000102ff521c cxxbridge1$str$ptr + 2498188
+14  chromedriver                        0x0000000103003cd0 cxxbridge1$str$ptr + 2558272
+15  libsystem_pthread.dylib             0x000000018e4e72e4 _pthread_start + 136
+16  libsystem_pthread.dylib             0x000000018e4e20fc thread_start + 8
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DX225LC-7M</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Message: no such element: Unable to locate element: {"method":"css selector","selector":"a[jsname="UWckNb"]"}
+  (Session info: chrome=132.0.6834.84); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+0   chromedriver                        0x0000000100eab7a4 cxxbridge1$str$ptr + 2589716
+1   chromedriver                        0x0000000100ea405c cxxbridge1$str$ptr + 2559180
+2   chromedriver                        0x0000000100a47f5c cxxbridge1$string$len + 88260
+3   chromedriver                        0x0000000100a8d024 cxxbridge1$string$len + 371084
+4   chromedriver                        0x0000000100ac71a8 cxxbridge1$string$len + 609040
+5   chromedriver                        0x0000000100a80e40 cxxbridge1$string$len + 321448
+6   chromedriver                        0x0000000100a81a88 cxxbridge1$string$len + 324592
+7   chromedriver                        0x0000000100e768a0 cxxbridge1$str$ptr + 2372880
+8   chromedriver                        0x0000000100e79bc4 cxxbridge1$str$ptr + 2385972
+9   chromedriver                        0x0000000100e5d6e0 cxxbridge1$str$ptr + 2270032
+10  chromedriver                        0x0000000100e7a484 cxxbridge1$str$ptr + 2388212
+11  chromedriver                        0x0000000100e4f324 cxxbridge1$str$ptr + 2211732
+12  chromedriver                        0x0000000100e950a0 cxxbridge1$str$ptr + 2497808
+13  chromedriver                        0x0000000100e9521c cxxbridge1$str$ptr + 2498188
+14  chromedriver                        0x0000000100ea3cd0 cxxbridge1$str$ptr + 2558272
+15  libsystem_pthread.dylib             0x000000018e4e72e4 _pthread_start + 136
+16  libsystem_pthread.dylib             0x000000018e4e20fc thread_start + 8
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>DX225LCA-7M</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Message: no such element: Unable to locate element: {"method":"css selector","selector":"a[jsname="UWckNb"]"}
+  (Session info: chrome=132.0.6834.84); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+0   chromedriver                        0x00000001047df7a4 cxxbridge1$str$ptr + 2589716
+1   chromedriver                        0x00000001047d805c cxxbridge1$str$ptr + 2559180
+2   chromedriver                        0x000000010437bf5c cxxbridge1$string$len + 88260
+3   chromedriver                        0x00000001043c1024 cxxbridge1$string$len + 371084
+4   chromedriver                        0x00000001043fb1a8 cxxbridge1$string$len + 609040
+5   chromedriver                        0x00000001043b4e40 cxxbridge1$string$len + 321448
+6   chromedriver                        0x00000001043b5a88 cxxbridge1$string$len + 324592
+7   chromedriver                        0x00000001047aa8a0 cxxbridge1$str$ptr + 2372880
+8   chromedriver                        0x00000001047adbc4 cxxbridge1$str$ptr + 2385972
+9   chromedriver                        0x00000001047916e0 cxxbridge1$str$ptr + 2270032
+10  chromedriver                        0x00000001047ae484 cxxbridge1$str$ptr + 2388212
+11  chromedriver                        0x0000000104783324 cxxbridge1$str$ptr + 2211732
+12  chromedriver                        0x00000001047c90a0 cxxbridge1$str$ptr + 2497808
+13  chromedriver                        0x00000001047c921c cxxbridge1$str$ptr + 2498188
+14  chromedriver                        0x00000001047d7cd0 cxxbridge1$str$ptr + 2558272
+15  libsystem_pthread.dylib             0x000000018e4e72e4 _pthread_start + 136
+16  libsystem_pthread.dylib             0x000000018e4e20fc thread_start + 8
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>DX300LC-7M</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Message: no such element: Unable to locate element: {"method":"css selector","selector":"a[jsname="UWckNb"]"}
+  (Session info: chrome=132.0.6834.84); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+0   chromedriver                        0x00000001030ff7a4 cxxbridge1$str$ptr + 2589716
+1   chromedriver                        0x00000001030f805c cxxbridge1$str$ptr + 2559180
+2   chromedriver                        0x0000000102c9bf5c cxxbridge1$string$len + 88260
+3   chromedriver                        0x0000000102ce1024 cxxbridge1$string$len + 371084
+4   chromedriver                        0x0000000102d1b1a8 cxxbridge1$string$len + 609040
+5   chromedriver                        0x0000000102cd4e40 cxxbridge1$string$len + 321448
+6   chromedriver                        0x0000000102cd5a88 cxxbridge1$string$len + 324592
+7   chromedriver                        0x00000001030ca8a0 cxxbridge1$str$ptr + 2372880
+8   chromedriver                        0x00000001030cdbc4 cxxbridge1$str$ptr + 2385972
+9   chromedriver                        0x00000001030b16e0 cxxbridge1$str$ptr + 2270032
+10  chromedriver                        0x00000001030ce484 cxxbridge1$str$ptr + 2388212
+11  chromedriver                        0x00000001030a3324 cxxbridge1$str$ptr + 2211732
+12  chromedriver                        0x00000001030e90a0 cxxbridge1$str$ptr + 2497808
+13  chromedriver                        0x00000001030e921c cxxbridge1$str$ptr + 2498188
+14  chromedriver                        0x00000001030f7cd0 cxxbridge1$str$ptr + 2558272
+15  libsystem_pthread.dylib             0x000000018e4e72e4 _pthread_start + 136
+16  libsystem_pthread.dylib             0x000000018e4e20fc thread_start + 8
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>DX300LCA-7M</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Message: no such element: Unable to locate element: {"method":"css selector","selector":"a[jsname="UWckNb"]"}
+  (Session info: chrome=132.0.6834.84); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+0   chromedriver                        0x00000001051477a4 cxxbridge1$str$ptr + 2589716
+1   chromedriver                        0x000000010514005c cxxbridge1$str$ptr + 2559180
+2   chromedriver                        0x0000000104ce3f5c cxxbridge1$string$len + 88260
+3   chromedriver                        0x0000000104d29024 cxxbridge1$string$len + 371084
+4   chromedriver                        0x0000000104d631a8 cxxbridge1$string$len + 609040
+5   chromedriver                        0x0000000104d1ce40 cxxbridge1$string$len + 321448
+6   chromedriver                        0x0000000104d1da88 cxxbridge1$string$len + 324592
+7   chromedriver                        0x00000001051128a0 cxxbridge1$str$ptr + 2372880
+8   chromedriver                        0x0000000105115bc4 cxxbridge1$str$ptr + 2385972
+9   chromedriver                        0x00000001050f96e0 cxxbridge1$str$ptr + 2270032
+10  chromedriver                        0x0000000105116484 cxxbridge1$str$ptr + 2388212
+11  chromedriver                        0x00000001050eb324 cxxbridge1$str$ptr + 2211732
+12  chromedriver                        0x00000001051310a0 cxxbridge1$str$ptr + 2497808
+13  chromedriver                        0x000000010513121c cxxbridge1$str$ptr + 2498188
+14  chromedriver                        0x000000010513fcd0 cxxbridge1$str$ptr + 2558272
+15  libsystem_pthread.dylib             0x000000018e4e72e4 _pthread_start + 136
+16  libsystem_pthread.dylib             0x000000018e4e20fc thread_start + 8
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>DX140LC</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Message: no such element: Unable to locate element: {"method":"css selector","selector":"a[jsname="UWckNb"]"}
+  (Session info: chrome=132.0.6834.84); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+0   chromedriver                        0x000000010103f7a4 cxxbridge1$str$ptr + 2589716
+1   chromedriver                        0x000000010103805c cxxbridge1$str$ptr + 2559180
+2   chromedriver                        0x0000000100bdbf5c cxxbridge1$string$len + 88260
+3   chromedriver                        0x0000000100c21024 cxxbridge1$string$len + 371084
+4   chromedriver                        0x0000000100c5b1a8 cxxbridge1$string$len + 609040
+5   chromedriver                        0x0000000100c14e40 cxxbridge1$string$len + 321448
+6   chromedriver                        0x0000000100c15a88 cxxbridge1$string$len + 324592
+7   chromedriver                        0x000000010100a8a0 cxxbridge1$str$ptr + 2372880
+8   chromedriver                        0x000000010100dbc4 cxxbridge1$str$ptr + 2385972
+9   chromedriver                        0x0000000100ff16e0 cxxbridge1$str$ptr + 2270032
+10  chromedriver                        0x000000010100e484 cxxbridge1$str$ptr + 2388212
+11  chromedriver                        0x0000000100fe3324 cxxbridge1$str$ptr + 2211732
+12  chromedriver                        0x00000001010290a0 cxxbridge1$str$ptr + 2497808
+13  chromedriver                        0x000000010102921c cxxbridge1$str$ptr + 2498188
+14  chromedriver                        0x0000000101037cd0 cxxbridge1$str$ptr + 2558272
+15  libsystem_pthread.dylib             0x000000018e4e72e4 _pthread_start + 136
+16  libsystem_pthread.dylib             0x000000018e4e20fc thread_start + 8
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>DX140LCA</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Message: no such element: Unable to locate element: {"method":"css selector","selector":"a[jsname="UWckNb"]"}
+  (Session info: chrome=132.0.6834.84); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+0   chromedriver                        0x00000001034837a4 cxxbridge1$str$ptr + 2589716
+1   chromedriver                        0x000000010347c05c cxxbridge1$str$ptr + 2559180
+2   chromedriver                        0x000000010301ff5c cxxbridge1$string$len + 88260
+3   chromedriver                        0x0000000103065024 cxxbridge1$string$len + 371084
+4   chromedriver                        0x000000010309f1a8 cxxbridge1$string$len + 609040
+5   chromedriver                        0x0000000103058e40 cxxbridge1$string$len + 321448
+6   chromedriver                        0x0000000103059a88 cxxbridge1$string$len + 324592
+7   chromedriver                        0x000000010344e8a0 cxxbridge1$str$ptr + 2372880
+8   chromedriver                        0x0000000103451bc4 cxxbridge1$str$ptr + 2385972
+9   chromedriver                        0x00000001034356e0 cxxbridge1$str$ptr + 2270032
+10  chromedriver                        0x0000000103452484 cxxbridge1$str$ptr + 2388212
+11  chromedriver                        0x0000000103427324 cxxbridge1$str$ptr + 2211732
+12  chromedriver                        0x000000010346d0a0 cxxbridge1$str$ptr + 2497808
+13  chromedriver                        0x000000010346d21c cxxbridge1$str$ptr + 2498188
+14  chromedriver                        0x000000010347bcd0 cxxbridge1$str$ptr + 2558272
+15  libsystem_pthread.dylib             0x000000018e4e72e4 _pthread_start + 136
+16  libsystem_pthread.dylib             0x000000018e4e20fc thread_start + 8
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>DX220LCA-2</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Message: no such element: Unable to locate element: {"method":"css selector","selector":"a[jsname="UWckNb"]"}
+  (Session info: chrome=132.0.6834.84); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+0   chromedriver                        0x0000000102f9f7a4 cxxbridge1$str$ptr + 2589716
+1   chromedriver                        0x0000000102f9805c cxxbridge1$str$ptr + 2559180
+2   chromedriver                        0x0000000102b3bf5c cxxbridge1$string$len + 88260
+3   chromedriver                        0x0000000102b81024 cxxbridge1$string$len + 371084
+4   chromedriver                        0x0000000102bbb1a8 cxxbridge1$string$len + 609040
+5   chromedriver                        0x0000000102b74e40 cxxbridge1$string$len + 321448
+6   chromedriver                        0x0000000102b75a88 cxxbridge1$string$len + 324592
+7   chromedriver                        0x0000000102f6a8a0 cxxbridge1$str$ptr + 2372880
+8   chromedriver                        0x0000000102f6dbc4 cxxbridge1$str$ptr + 2385972
+9   chromedriver                        0x0000000102f516e0 cxxbridge1$str$ptr + 2270032
+10  chromedriver                        0x0000000102f6e484 cxxbridge1$str$ptr + 2388212
+11  chromedriver                        0x0000000102f43324 cxxbridge1$str$ptr + 2211732
+12  chromedriver                        0x0000000102f890a0 cxxbridge1$str$ptr + 2497808
+13  chromedriver                        0x0000000102f8921c cxxbridge1$str$ptr + 2498188
+14  chromedriver                        0x0000000102f97cd0 cxxbridge1$str$ptr + 2558272
+15  libsystem_pthread.dylib             0x000000018e4e72e4 _pthread_start + 136
+16  libsystem_pthread.dylib             0x000000018e4e20fc thread_start + 8
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>DX225LL</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Message: no such element: Unable to locate element: {"method":"css selector","selector":"a[jsname="UWckNb"]"}
+  (Session info: chrome=132.0.6834.84); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+0   chromedriver                        0x00000001049b77a4 cxxbridge1$str$ptr + 2589716
+1   chromedriver                        0x00000001049b005c cxxbridge1$str$ptr + 2559180
+2   chromedriver                        0x0000000104553f5c cxxbridge1$string$len + 88260
+3   chromedriver                        0x0000000104599024 cxxbridge1$string$len + 371084
+4   chromedriver                        0x00000001045d31a8 cxxbridge1$string$len + 609040
+5   chromedriver                        0x000000010458ce40 cxxbridge1$string$len + 321448
+6   chromedriver                        0x000000010458da88 cxxbridge1$string$len + 324592
+7   chromedriver                        0x00000001049828a0 cxxbridge1$str$ptr + 2372880
+8   chromedriver                        0x0000000104985bc4 cxxbridge1$str$ptr + 2385972
+9   chromedriver                        0x00000001049696e0 cxxbridge1$str$ptr + 2270032
+10  chromedriver                        0x0000000104986484 cxxbridge1$str$ptr + 2388212
+11  chromedriver                        0x000000010495b324 cxxbridge1$str$ptr + 2211732
+12  chromedriver                        0x00000001049a10a0 cxxbridge1$str$ptr + 2497808
+13  chromedriver                        0x00000001049a121c cxxbridge1$str$ptr + 2498188
+14  chromedriver                        0x00000001049afcd0 cxxbridge1$str$ptr + 2558272
+15  libsystem_pthread.dylib             0x000000018e4e72e4 _pthread_start + 136
+16  libsystem_pthread.dylib             0x000000018e4e20fc thread_start + 8
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>DX225NLCA</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Message: no such element: Unable to locate element: {"method":"css selector","selector":"a[jsname="UWckNb"]"}
+  (Session info: chrome=132.0.6834.84); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+0   chromedriver                        0x00000001053af7a4 cxxbridge1$str$ptr + 2589716
+1   chromedriver                        0x00000001053a805c cxxbridge1$str$ptr + 2559180
+2   chromedriver                        0x0000000104f4bf5c cxxbridge1$string$len + 88260
+3   chromedriver                        0x0000000104f91024 cxxbridge1$string$len + 371084
+4   chromedriver                        0x0000000104fcb1a8 cxxbridge1$string$len + 609040
+5   chromedriver                        0x0000000104f84e40 cxxbridge1$string$len + 321448
+6   chromedriver                        0x0000000104f85a88 cxxbridge1$string$len + 324592
+7   chromedriver                        0x000000010537a8a0 cxxbridge1$str$ptr + 2372880
+8   chromedriver                        0x000000010537dbc4 cxxbridge1$str$ptr + 2385972
+9   chromedriver                        0x00000001053616e0 cxxbridge1$str$ptr + 2270032
+10  chromedriver                        0x000000010537e484 cxxbridge1$str$ptr + 2388212
+11  chromedriver                        0x0000000105353324 cxxbridge1$str$ptr + 2211732
+12  chromedriver                        0x00000001053990a0 cxxbridge1$str$ptr + 2497808
+13  chromedriver                        0x000000010539921c cxxbridge1$str$ptr + 2498188
+14  chromedriver                        0x00000001053a7cd0 cxxbridge1$str$ptr + 2558272
+15  libsystem_pthread.dylib             0x000000018e4e72e4 _pthread_start + 136
+16  libsystem_pthread.dylib             0x000000018e4e20fc thread_start + 8
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>DX260LCA</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Message: no such element: Unable to locate element: {"method":"css selector","selector":"a[jsname="UWckNb"]"}
+  (Session info: chrome=132.0.6834.84); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+0   chromedriver                        0x00000001051bf7a4 cxxbridge1$str$ptr + 2589716
+1   chromedriver                        0x00000001051b805c cxxbridge1$str$ptr + 2559180
+2   chromedriver                        0x0000000104d5bf5c cxxbridge1$string$len + 88260
+3   chromedriver                        0x0000000104da1024 cxxbridge1$string$len + 371084
+4   chromedriver                        0x0000000104ddb1a8 cxxbridge1$string$len + 609040
+5   chromedriver                        0x0000000104d94e40 cxxbridge1$string$len + 321448
+6   chromedriver                        0x0000000104d95a88 cxxbridge1$string$len + 324592
+7   chromedriver                        0x000000010518a8a0 cxxbridge1$str$ptr + 2372880
+8   chromedriver                        0x000000010518dbc4 cxxbridge1$str$ptr + 2385972
+9   chromedriver                        0x00000001051716e0 cxxbridge1$str$ptr + 2270032
+10  chromedriver                        0x000000010518e484 cxxbridge1$str$ptr + 2388212
+11  chromedriver                        0x0000000105163324 cxxbridge1$str$ptr + 2211732
+12  chromedriver                        0x00000001051a90a0 cxxbridge1$str$ptr + 2497808
+13  chromedriver                        0x00000001051a921c cxxbridge1$str$ptr + 2498188
+14  chromedriver                        0x00000001051b7cd0 cxxbridge1$str$ptr + 2558272
+15  libsystem_pthread.dylib             0x000000018e4e72e4 _pthread_start + 136
+16  libsystem_pthread.dylib             0x000000018e4e20fc thread_start + 8
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>DX490LC-7M</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Message: no such element: Unable to locate element: {"method":"css selector","selector":"a[jsname="UWckNb"]"}
+  (Session info: chrome=132.0.6834.84); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+0   chromedriver                        0x00000001045fb7a4 cxxbridge1$str$ptr + 2589716
+1   chromedriver                        0x00000001045f405c cxxbridge1$str$ptr + 2559180
+2   chromedriver                        0x0000000104197f5c cxxbridge1$string$len + 88260
+3   chromedriver                        0x00000001041dd024 cxxbridge1$string$len + 371084
+4   chromedriver                        0x00000001042171a8 cxxbridge1$string$len + 609040
+5   chromedriver                        0x00000001041d0e40 cxxbridge1$string$len + 321448
+6   chromedriver                        0x00000001041d1a88 cxxbridge1$string$len + 324592
+7   chromedriver                        0x00000001045c68a0 cxxbridge1$str$ptr + 2372880
+8   chromedriver                        0x00000001045c9bc4 cxxbridge1$str$ptr + 2385972
+9   chromedriver                        0x00000001045ad6e0 cxxbridge1$str$ptr + 2270032
+10  chromedriver                        0x00000001045ca484 cxxbridge1$str$ptr + 2388212
+11  chromedriver                        0x000000010459f324 cxxbridge1$str$ptr + 2211732
+12  chromedriver                        0x00000001045e50a0 cxxbridge1$str$ptr + 2497808
+13  chromedriver                        0x00000001045e521c cxxbridge1$str$ptr + 2498188
+14  chromedriver                        0x00000001045f3cd0 cxxbridge1$str$ptr + 2558272
+15  libsystem_pthread.dylib             0x000000018e4e72e4 _pthread_start + 136
+16  libsystem_pthread.dylib             0x000000018e4e20fc thread_start + 8
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>DX530LC-7M</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Message: no such element: Unable to locate element: {"method":"css selector","selector":"a[jsname="UWckNb"]"}
+  (Session info: chrome=132.0.6834.84); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+0   chromedriver                        0x000000010502b7a4 cxxbridge1$str$ptr + 2589716
+1   chromedriver                        0x000000010502405c cxxbridge1$str$ptr + 2559180
+2   chromedriver                        0x0000000104bc7f5c cxxbridge1$string$len + 88260
+3   chromedriver                        0x0000000104c0d024 cxxbridge1$string$len + 371084
+4   chromedriver                        0x0000000104c471a8 cxxbridge1$string$len + 609040
+5   chromedriver                        0x0000000104c00e40 cxxbridge1$string$len + 321448
+6   chromedriver                        0x0000000104c01a88 cxxbridge1$string$len + 324592
+7   chromedriver                        0x0000000104ff68a0 cxxbridge1$str$ptr + 2372880
+8   chromedriver                        0x0000000104ff9bc4 cxxbridge1$str$ptr + 2385972
+9   chromedriver                        0x0000000104fdd6e0 cxxbridge1$str$ptr + 2270032
+10  chromedriver                        0x0000000104ffa484 cxxbridge1$str$ptr + 2388212
+11  chromedriver                        0x0000000104fcf324 cxxbridge1$str$ptr + 2211732
+12  chromedriver                        0x00000001050150a0 cxxbridge1$str$ptr + 2497808
+13  chromedriver                        0x000000010501521c cxxbridge1$str$ptr + 2498188
+14  chromedriver                        0x0000000105023cd0 cxxbridge1$str$ptr + 2558272
+15  libsystem_pthread.dylib             0x000000018e4e72e4 _pthread_start + 136
+16  libsystem_pthread.dylib             0x000000018e4e20fc thread_start + 8
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>DX1000LC-7</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Message: no such element: Unable to locate element: {"method":"css selector","selector":"a[jsname="UWckNb"]"}
+  (Session info: chrome=132.0.6834.84); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+0   chromedriver                        0x00000001010db7a4 cxxbridge1$str$ptr + 2589716
+1   chromedriver                        0x00000001010d405c cxxbridge1$str$ptr + 2559180
+2   chromedriver                        0x0000000100c77f5c cxxbridge1$string$len + 88260
+3   chromedriver                        0x0000000100cbd024 cxxbridge1$string$len + 371084
+4   chromedriver                        0x0000000100cf71a8 cxxbridge1$string$len + 609040
+5   chromedriver                        0x0000000100cb0e40 cxxbridge1$string$len + 321448
+6   chromedriver                        0x0000000100cb1a88 cxxbridge1$string$len + 324592
+7   chromedriver                        0x00000001010a68a0 cxxbridge1$str$ptr + 2372880
+8   chromedriver                        0x00000001010a9bc4 cxxbridge1$str$ptr + 2385972
+9   chromedriver                        0x000000010108d6e0 cxxbridge1$str$ptr + 2270032
+10  chromedriver                        0x00000001010aa484 cxxbridge1$str$ptr + 2388212
+11  chromedriver                        0x000000010107f324 cxxbridge1$str$ptr + 2211732
+12  chromedriver                        0x00000001010c50a0 cxxbridge1$str$ptr + 2497808
+13  chromedriver                        0x00000001010c521c cxxbridge1$str$ptr + 2498188
+14  chromedriver                        0x00000001010d3cd0 cxxbridge1$str$ptr + 2558272
+15  libsystem_pthread.dylib             0x000000018e4e72e4 _pthread_start + 136
+16  libsystem_pthread.dylib             0x000000018e4e20fc thread_start + 8
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>DX800LC-5B</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error: Message: no such element: Unable to locate element: {"method":"css selector","selector":"a[jsname="UWckNb"]"}
+  (Session info: chrome=132.0.6834.84); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+0   chromedriver                        0x0000000104f2f7a4 cxxbridge1$str$ptr + 2589716
+1   chromedriver                        0x0000000104f2805c cxxbridge1$str$ptr + 2559180
+2   chromedriver                        0x0000000104acbf5c cxxbridge1$string$len + 88260
+3   chromedriver                        0x0000000104b11024 cxxbridge1$string$len + 371084
+4   chromedriver                        0x0000000104b4b1a8 cxxbridge1$string$len + 609040
+5   chromedriver                        0x0000000104b04e40 cxxbridge1$string$len + 321448
+6   chromedriver                        0x0000000104b05a88 cxxbridge1$string$len + 324592
+7   chromedriver                        0x0000000104efa8a0 cxxbridge1$str$ptr + 2372880
+8   chromedriver                        0x0000000104efdbc4 cxxbridge1$str$ptr + 2385972
+9   chromedriver                        0x0000000104ee16e0 cxxbridge1$str$ptr + 2270032
+10  chromedriver                        0x0000000104efe484 cxxbridge1$str$ptr + 2388212
+11  chromedriver                        0x0000000104ed3324 cxxbridge1$str$ptr + 2211732
+12  chromedriver                        0x0000000104f190a0 cxxbridge1$str$ptr + 2497808
+13  chromedriver                        0x0000000104f1921c cxxbridge1$str$ptr + 2498188
+14  chromedriver                        0x0000000104f27cd0 cxxbridge1$str$ptr + 2558272
+15  libsystem_pthread.dylib             0x000000018e4e72e4 _pthread_start + 136
+16  libsystem_pthread.dylib             0x000000018e4e20fc thread_start + 8
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
